--- a/biology/Botanique/Magnolia_pacifica/Magnolia_pacifica.xlsx
+++ b/biology/Botanique/Magnolia_pacifica/Magnolia_pacifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia pacifica est une espèce d'arbres de la famille des Magnoliacées endémique du Mexique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente dans les états de Jalisco et Nayarit[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente dans les états de Jalisco et Nayarit.
 </t>
         </is>
       </c>
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,16 +612,18 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia pacifica Vazquez (1994)
 sous-espèce Magnolia pacifica subsp. pacifica
 sous-espèce Magnolia pacifica subsp. tarahumara Vazquez (1994)
-Selon NCBI  (31 décembre 2013)[4] :
+Selon NCBI  (31 décembre 2013) :
 sous-espèce Magnolia pacifica subsp. pugana
 sous-espèce Magnolia pacifica subsp. tarahumara
-Selon Tropicos                                           (31 décembre 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnolia pacifica subsp. pacifica
 sous-espèce Magnolia pacifica subsp. pugana Iltis &amp; A. Vázquez
 sous-espèce Magnolia pacifica subsp. tarahumara A. Vázquez</t>
